--- a/resource/biaodan/“红雨”革命组活动项目表.xlsx
+++ b/resource/biaodan/“红雨”革命组活动项目表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>“红雨”革命组活动项目表</t>
   </si>
@@ -30,6 +30,9 @@
   <si>
     <t>负责人签字</t>
   </si>
+  <si>
+    <t>档案编号：RRRGB—XM—__________</t>
+  </si>
 </sst>
 </file>
 
@@ -780,7 +783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,6 +824,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1142,10 +1151,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1482,8 +1491,28 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
     </row>
+    <row r="30" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A30" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="83">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -1565,6 +1594,7 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:G29"/>
+    <mergeCell ref="A30:G31"/>
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <pageMargins left="0.751388888888889" right="0.66875" top="1" bottom="1" header="0.5" footer="0.5"/>
